--- a/exp-sota.xlsx
+++ b/exp-sota.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21500" windowHeight="14200" activeTab="2"/>
+    <workbookView windowWidth="20460" windowHeight="13300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Bibtex" sheetId="1" r:id="rId1"/>
     <sheet name="Delicious" sheetId="2" r:id="rId2"/>
     <sheet name="Eurlex" sheetId="4" r:id="rId3"/>
     <sheet name="Wiki" sheetId="3" r:id="rId4"/>
+    <sheet name="mAP-bib" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>Metric</t>
   </si>
@@ -87,6 +88,24 @@
   <si>
     <t>DiSMEC</t>
   </si>
+  <si>
+    <t>bibtex</t>
+  </si>
+  <si>
+    <t>mAP</t>
+  </si>
+  <si>
+    <t>baseline/tail</t>
+  </si>
+  <si>
+    <t>baseline/head</t>
+  </si>
+  <si>
+    <t>cs/tail</t>
+  </si>
+  <si>
+    <t>cs/head</t>
+  </si>
 </sst>
 </file>
 
@@ -95,8 +114,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -151,13 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -173,6 +185,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -181,11 +201,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,6 +240,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -214,7 +256,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,9 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,36 +297,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,37 +316,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,13 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,13 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,124 +612,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,19 +738,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3209,6 +3228,1099 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Bibtex</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.166127121989736"/>
+          <c:y val="0.210064516129032"/>
+          <c:w val="0.785708645874457"/>
+          <c:h val="0.533625806451613"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mAP-bib'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline/tail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'mAP-bib'!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mAP-bib'!$D$5:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mAP-bib'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cs/tail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'mAP-bib'!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mAP-bib'!$G$5:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>28.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="227983079"/>
+        <c:axId val="16809665"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mAP-bib'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline/head</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'mAP-bib'!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mAP-bib'!$E$5:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>36.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mAP-bib'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cs/head</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'mAP-bib'!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mAP-bib'!$H$5:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>36.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="208"/>
+        <c:overlap val="0"/>
+        <c:axId val="456719217"/>
+        <c:axId val="699616531"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="227983079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>tail label rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37486704487174"/>
+              <c:y val="0.90786947603953"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16809665"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16809665"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>mAP over tail labels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0458498023715415"/>
+              <c:y val="0.23021935483871"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227983079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="456719217"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699616531"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="699616531"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456719217"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.693642886233731"/>
+          <c:y val="0.0286451612903226"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3369,6 +4481,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
@@ -5385,6 +6537,530 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5529,6 +7205,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1463040" y="2583815"/>
+        <a:ext cx="3994150" cy="3122930"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -6242,7 +7953,7 @@
   <sheetPr/>
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+    <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6665,4 +8376,260 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B3:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>34.17</v>
+      </c>
+      <c r="F3">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>29.04</v>
+      </c>
+      <c r="D5">
+        <v>25.79</v>
+      </c>
+      <c r="E5">
+        <v>36.36</v>
+      </c>
+      <c r="F5">
+        <v>29.2</v>
+      </c>
+      <c r="G5">
+        <v>28.35</v>
+      </c>
+      <c r="H5">
+        <v>36.56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>24.82</v>
+      </c>
+      <c r="D6">
+        <v>25.92</v>
+      </c>
+      <c r="E6">
+        <v>39.17</v>
+      </c>
+      <c r="F6">
+        <v>25.06</v>
+      </c>
+      <c r="G6">
+        <v>27.11</v>
+      </c>
+      <c r="H6">
+        <v>39.55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>21.31</v>
+      </c>
+      <c r="D7">
+        <v>25.86</v>
+      </c>
+      <c r="E7">
+        <v>43.25</v>
+      </c>
+      <c r="F7">
+        <v>21.41</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>43.44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8">
+        <v>17.24</v>
+      </c>
+      <c r="D8">
+        <v>27.71</v>
+      </c>
+      <c r="E8">
+        <v>45.74</v>
+      </c>
+      <c r="F8">
+        <v>17.29</v>
+      </c>
+      <c r="G8">
+        <v>28.69</v>
+      </c>
+      <c r="H8">
+        <v>45.89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>13.4</v>
+      </c>
+      <c r="D9">
+        <v>29.36</v>
+      </c>
+      <c r="E9">
+        <v>48.01</v>
+      </c>
+      <c r="F9">
+        <v>13.32</v>
+      </c>
+      <c r="G9">
+        <v>30.4</v>
+      </c>
+      <c r="H9">
+        <v>47.68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+      <c r="C10">
+        <v>9.66</v>
+      </c>
+      <c r="D10">
+        <v>31.19</v>
+      </c>
+      <c r="E10">
+        <v>48.13</v>
+      </c>
+      <c r="F10">
+        <v>9.62</v>
+      </c>
+      <c r="G10">
+        <v>32.08</v>
+      </c>
+      <c r="H10">
+        <v>47.86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>0.7</v>
+      </c>
+      <c r="C11">
+        <v>7.3</v>
+      </c>
+      <c r="D11">
+        <v>31.81</v>
+      </c>
+      <c r="E11">
+        <v>52.68</v>
+      </c>
+      <c r="F11">
+        <v>7.3</v>
+      </c>
+      <c r="G11">
+        <v>32.58</v>
+      </c>
+      <c r="H11">
+        <v>52.65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="C12">
+        <v>5.18</v>
+      </c>
+      <c r="D12">
+        <v>32.33</v>
+      </c>
+      <c r="E12">
+        <v>64.79</v>
+      </c>
+      <c r="F12">
+        <v>5.15</v>
+      </c>
+      <c r="G12">
+        <v>33.09</v>
+      </c>
+      <c r="H12">
+        <v>64.32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>0.9</v>
+      </c>
+      <c r="C13">
+        <v>3.3</v>
+      </c>
+      <c r="D13">
+        <v>33.16</v>
+      </c>
+      <c r="E13">
+        <v>86.64</v>
+      </c>
+      <c r="F13">
+        <v>3.29</v>
+      </c>
+      <c r="G13">
+        <v>33.88</v>
+      </c>
+      <c r="H13">
+        <v>85.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>